--- a/biology/Botanique/Tacca_chantrieri/Tacca_chantrieri.xlsx
+++ b/biology/Botanique/Tacca_chantrieri/Tacca_chantrieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tacca chantrieri, la fleur chauve-souris, est une espèce de plantes de la famille des Taccaceae selon la classification classique, ou des Dioscoreaceae selon la classification phylogénétique. C'est une plante herbacée vivace vivant dans les régions tropicales. Elle est indigène en Thaïlande, au Myanmar (Birmanie) et dans les régions adjacentes de la Chine. Elle est fréquemment cultivée et largement introduite dans le reste de l'Asie tropicale.
 Cette espèce est dépourvue de tige et possède de grandes feuilles ovales vert brillant pouvant atteindre 60 centimètres de long.
